--- a/WheelOfTruth/Assets/Resources/Config/Sources/WheelConfig.xlsx
+++ b/WheelOfTruth/Assets/Resources/Config/Sources/WheelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="(results)" sheetId="1" r:id="rId1"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
